--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.76</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>85.32</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>76.43</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,1580 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6725</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2740,4 +2741,2644 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>183.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5381,4 +5382,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5390,7 +5391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5401,17 +5402,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5421,14 +5442,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.45</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5437,14 +5480,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.630000000000001</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5453,14 +5518,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.38</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5469,13 +5556,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3717</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5647</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7309,7 +7310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7320,17 +7321,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7340,14 +7361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.15</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7356,14 +7399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.45</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7372,14 +7437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.630000000000001</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7388,14 +7475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.38</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -7404,13 +7513,4307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9820</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0672</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7730</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7417</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6965</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5318</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11696,7 +11697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11707,17 +11708,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11727,14 +11748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>114</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.81</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11743,14 +11786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.15</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11759,14 +11824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.45</v>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -11775,14 +11862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.630000000000001</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8449</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11791,14 +11900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.38</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -11807,13 +11938,3333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0567</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7391</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>26.89</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>38.81</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>23.15</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>33.45</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>9.630000000000001</v>
+        <v>33.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>1.38</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.88</v>
       </c>
     </row>
@@ -600,6 +617,2264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011108</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰天兴量化智选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011107</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰天兴量化智选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4033,7 +6308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8419,7 +10694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10337,7 +12612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12977,7 +15252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14553,7 +16828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14951,7 +17226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
+++ b/数据整理/stocks/A股/上证主板/603290-斯达半导.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>24.95</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>26.89</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>38.81</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D5" t="n">
-        <v>23.15</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>33.45</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>9.630000000000001</v>
+        <v>33.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.88</v>
       </c>
     </row>
@@ -616,7 +633,3377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富进取成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015224</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富进取成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2874,7 +6261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6308,7 +9695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10694,7 +14081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12612,7 +15999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15252,7 +18639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16828,7 +20215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17224,326 +20611,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7660</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006366</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业安保优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.76</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>